--- a/biology/Zoologie/Colias/Colias.xlsx
+++ b/biology/Zoologie/Colias/Colias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias est un genre de lépidoptères (papillons) de la famille des Pieridae et de la sous-famille des Coliadinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Colias a été donné par Johan Christian Fabricius en 1807. 
 Nom vernaculaire en anglais : clouded yellows.
@@ -543,10 +557,12 @@
           <t>Caractéristiques communes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes hôtes des chenilles des Colias sont des fabacées (légumineuses).
-Leur vol est puissant et ce sont des migrateurs[1].
+Leur vol est puissant et ce sont des migrateurs.
 Le dessin des nervures de leurs ailes est caractéristique.
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Colias adelaidae (Verhulst, 1991)
 Colias adelaidae karmalana (Grieshuber, 1999)
@@ -898,7 +916,9 @@
           <t>En Europe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec une large répartition:
 Colias alfacariensis Ribbe, 1905  — Fluoré.
